--- a/social_media_trend_app/public/Social_Media_Trends.xlsx
+++ b/social_media_trend_app/public/Social_Media_Trends.xlsx
@@ -537,7 +537,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
